--- a/m52 PnP/Rev2.1 documents/BOM-speeduino compatible PCB for m52 rev2.1.xlsx
+++ b/m52 PnP/Rev2.1 documents/BOM-speeduino compatible PCB for m52 rev2.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pasi\Documents\GitHub\Speeduino-M5x-PCBs\m52 PnP\Rev2.1 documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E1C415-AC6C-4547-90DF-B87E3CB85494}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3246BF77-044A-41BC-A212-29FDD4631DB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component List" sheetId="1" r:id="rId1"/>
@@ -835,19 +835,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>D16,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Liberation Sans"/>
-      </rPr>
-      <t>D19</t>
-    </r>
-  </si>
-  <si>
     <t>D1,D15,D17</t>
   </si>
   <si>
@@ -1231,6 +1218,19 @@
         <rFont val="Liberation Sans"/>
       </rPr>
       <t>,C24</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>D2,D16,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>D19</t>
     </r>
   </si>
 </sst>
@@ -1986,8 +1986,8 @@
   </sheetPr>
   <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2216,7 +2216,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
@@ -2340,7 +2340,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>15</v>
@@ -2402,7 +2402,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>16</v>
@@ -2464,7 +2464,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>17</v>
@@ -2526,13 +2526,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>11</v>
@@ -2542,13 +2542,13 @@
         <v>9</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K10" s="5">
         <v>0.3</v>
@@ -2676,10 +2676,10 @@
     <row r="13" spans="1:19" ht="16.5" thickBot="1">
       <c r="A13" s="17">
         <f>LEN(B13)-LEN(SUBSTITUTE(B13,",",""))+1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>215</v>
+        <v>293</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>91</v>
@@ -2711,28 +2711,28 @@
       </c>
       <c r="M13" s="6">
         <f>K13*A13</f>
-        <v>0.68</v>
+        <v>1.02</v>
       </c>
       <c r="N13" s="6">
         <f>L13*A13</f>
-        <v>0.86</v>
+        <v>1.29</v>
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2,1N5919BGOS-ND</v>
+        <v>3,1N5919BGOS-ND</v>
       </c>
       <c r="Q13" t="str">
         <f>"Diode - " &amp;A13&amp;"x "&amp;C13</f>
-        <v>Diode - 2x 1N5919BG Zener</v>
+        <v>Diode - 3x 1N5919BG Zener</v>
       </c>
       <c r="R13" t="str">
         <f t="shared" si="4"/>
-        <v>863-1N5919BRLG|2</v>
+        <v>863-1N5919BRLG|3</v>
       </c>
       <c r="S13" t="str">
         <f t="shared" si="5"/>
-        <v>1N5919BG 2</v>
+        <v>1N5919BG 3</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="26.25" thickBot="1">
@@ -2741,7 +2741,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>92</v>
@@ -2803,7 +2803,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>27</v>
@@ -2863,7 +2863,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>28</v>
@@ -3107,10 +3107,10 @@
         <v>183</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -3118,13 +3118,13 @@
         <v>185</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K21" s="6">
         <v>1</v>
@@ -3252,7 +3252,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>88</v>
@@ -3377,13 +3377,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>188</v>
@@ -3393,13 +3393,13 @@
         <v>20</v>
       </c>
       <c r="H26" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="K26" s="6">
         <v>0.25</v>
@@ -3576,7 +3576,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>43</v>
@@ -3636,7 +3636,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C31" s="12">
         <v>680</v>
@@ -3698,7 +3698,7 @@
         <v>13</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C32" s="3">
         <v>470</v>
@@ -3758,7 +3758,7 @@
         <v>14</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>157</v>
@@ -3820,7 +3820,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>90</v>
@@ -3882,7 +3882,7 @@
         <v>16</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>54</v>
@@ -3942,27 +3942,27 @@
         <v>6</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C36" s="3">
         <v>150</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="K36" s="5">
         <v>0.27</v>
@@ -4002,7 +4002,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>173</v>
@@ -4019,7 +4019,7 @@
         <v>175</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>176</v>
@@ -4152,29 +4152,29 @@
         <v>1</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
         <v>38</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I40" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="J40" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="K40" s="5">
         <v>0.59</v>
@@ -4190,16 +4190,16 @@
       </c>
       <c r="O40" s="4"/>
       <c r="P40" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q40" t="s">
         <v>229</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>230</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>231</v>
-      </c>
-      <c r="S40" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="26.25" thickBot="1">
@@ -4217,7 +4217,7 @@
         <v>204</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
@@ -4279,7 +4279,7 @@
         <v>71</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
@@ -4332,7 +4332,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>93</v>
@@ -4397,26 +4397,26 @@
         <v>122</v>
       </c>
       <c r="C44" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>260</v>
-      </c>
       <c r="E44" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="12" t="s">
         <v>151</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K44" s="6">
         <v>2.4</v>
@@ -4456,13 +4456,13 @@
         <v>2</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>205</v>
@@ -4472,13 +4472,13 @@
         <v>38</v>
       </c>
       <c r="H45" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="I45" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="J45" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="K45" s="6">
         <v>1.41</v>
@@ -4540,7 +4540,7 @@
     <row r="47" spans="1:19" ht="16.5" thickBot="1">
       <c r="A47" s="15"/>
       <c r="B47" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -4569,27 +4569,27 @@
         <v>13</v>
       </c>
       <c r="B48" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C48" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="D48" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="H48" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="H48" s="12" t="s">
+      <c r="I48" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="I48" s="12" t="s">
+      <c r="J48" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="K48" s="6">
         <v>0.55000000000000004</v>
@@ -4631,10 +4631,10 @@
         <v>211</v>
       </c>
       <c r="C49" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="12"/>
@@ -4642,13 +4642,13 @@
         <v>185</v>
       </c>
       <c r="H49" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="J49" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="K49" s="6">
         <v>0.33</v>
@@ -4693,7 +4693,7 @@
         <v>213</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="12"/>
@@ -4701,13 +4701,13 @@
         <v>185</v>
       </c>
       <c r="H50" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="K50" s="6">
         <v>0.16</v>
@@ -4778,11 +4778,11 @@
       <c r="L52" s="1"/>
       <c r="M52" s="10">
         <f>SUM(M3:M50)</f>
-        <v>120.71000000000001</v>
+        <v>121.05000000000001</v>
       </c>
       <c r="N52" s="10">
         <f>SUM(N3:N50)</f>
-        <v>140.62</v>
+        <v>141.04999999999998</v>
       </c>
       <c r="O52" s="9" t="s">
         <v>65</v>
